--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,6 +1341,9 @@
       <c r="A37">
         <v>5</v>
       </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37">
         <v>-15</v>
       </c>
@@ -1348,6 +1351,15 @@
         <v>1</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>9</v>
@@ -1371,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -1382,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>-15</v>
@@ -1400,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1408,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1420,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1434,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1460,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -1478,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1486,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1498,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -1512,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -1524,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1538,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1550,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1564,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>-15</v>
@@ -1576,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1590,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>9</v>
@@ -1608,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1616,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>9</v>
@@ -1631,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1642,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1654,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1668,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>-15</v>
@@ -1680,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1694,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>9</v>
@@ -1720,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52">
         <v>-15</v>
@@ -1738,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1746,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1758,13 +1770,13 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1772,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54">
         <v>-15</v>
@@ -1784,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1798,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>-15</v>
@@ -1813,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1824,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>-15</v>
@@ -1850,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="B57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>-15</v>
@@ -1868,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1876,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>-15</v>
@@ -1891,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1902,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1914,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1928,7 +1940,7 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>9</v>
@@ -1940,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1954,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <v>9</v>
@@ -1980,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>-15</v>
@@ -2006,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63">
         <v>-15</v>
@@ -2032,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64">
         <v>-15</v>
@@ -2050,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2058,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -2073,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2084,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2096,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2110,7 +2122,7 @@
         <v>5</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2125,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2136,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="B68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2154,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2162,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="B69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -2174,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2188,7 +2200,7 @@
         <v>5</v>
       </c>
       <c r="B70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70">
         <v>9</v>
@@ -2203,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2214,7 +2226,7 @@
         <v>5</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2226,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2240,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2258,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2266,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -2278,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2292,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="B74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2304,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2318,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -2330,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2344,7 +2356,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76">
         <v>-15</v>
@@ -2359,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -2370,7 +2382,7 @@
         <v>5</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>-15</v>
@@ -2388,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2396,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="B78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78">
         <v>-15</v>
@@ -2411,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2422,7 +2434,7 @@
         <v>5</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2434,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2448,7 +2460,7 @@
         <v>5</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2474,7 +2486,7 @@
         <v>5</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81">
         <v>-15</v>
@@ -2486,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2500,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>-15</v>
@@ -2526,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2538,13 +2550,13 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2552,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="B84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84">
         <v>9</v>
@@ -2564,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2578,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2590,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2604,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -2616,13 +2628,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2630,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2642,7 +2654,7 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2656,7 +2668,7 @@
         <v>5</v>
       </c>
       <c r="B88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2671,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2682,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89">
         <v>-15</v>
@@ -2694,13 +2706,13 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2708,7 +2720,7 @@
         <v>5</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90">
         <v>-15</v>
@@ -2723,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2734,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2746,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2760,7 +2772,7 @@
         <v>5</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2786,7 +2798,7 @@
         <v>5</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2804,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2812,7 +2824,7 @@
         <v>5</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2824,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2838,7 +2850,7 @@
         <v>5</v>
       </c>
       <c r="B95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2850,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -2864,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="B96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -2876,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2890,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2902,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -2916,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="B98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <v>-15</v>
@@ -2928,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -2942,7 +2954,7 @@
         <v>5</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2954,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -2968,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -2980,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2994,7 +3006,7 @@
         <v>5</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -3009,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -3020,7 +3032,7 @@
         <v>5</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102">
         <v>-15</v>
@@ -3035,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -3046,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>9</v>
@@ -3061,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -3072,7 +3084,7 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3084,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3098,7 +3110,7 @@
         <v>5</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <v>-15</v>
@@ -3110,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3124,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3136,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3150,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -3162,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3176,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -3194,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3202,7 +3214,7 @@
         <v>5</v>
       </c>
       <c r="B109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3214,13 +3226,13 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3228,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3246,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3254,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="B111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -3266,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3280,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="B112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112">
         <v>-15</v>
@@ -3295,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3306,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113">
         <v>9</v>
@@ -3332,7 +3344,7 @@
         <v>5</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -3347,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3358,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -3384,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="B116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3396,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3410,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="B117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117">
         <v>-15</v>
@@ -3422,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>5</v>
       </c>
       <c r="B118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118">
         <v>-15</v>
@@ -3451,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3462,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="B119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -3480,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3488,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="B120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>-15</v>
@@ -3514,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="B121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121">
         <v>-15</v>
@@ -3529,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -3540,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122">
         <v>-15</v>
@@ -3558,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3566,7 +3578,7 @@
         <v>5</v>
       </c>
       <c r="B123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123">
         <v>9</v>
@@ -3581,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3592,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="B124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3604,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -3618,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="B125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3633,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -3644,7 +3656,7 @@
         <v>5</v>
       </c>
       <c r="B126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126">
         <v>-15</v>
@@ -3656,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3670,7 +3682,7 @@
         <v>5</v>
       </c>
       <c r="B127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127">
         <v>9</v>
@@ -3696,7 +3708,7 @@
         <v>5</v>
       </c>
       <c r="B128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -3722,7 +3734,7 @@
         <v>5</v>
       </c>
       <c r="B129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129">
         <v>9</v>
@@ -3737,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3748,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="B130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -3774,7 +3786,7 @@
         <v>5</v>
       </c>
       <c r="B131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131">
         <v>-15</v>
@@ -3792,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3800,7 +3812,7 @@
         <v>5</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132">
         <v>-15</v>
@@ -3815,10 +3827,10 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3826,7 +3838,7 @@
         <v>5</v>
       </c>
       <c r="B133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -3852,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134">
         <v>9</v>
@@ -3867,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -3878,7 +3890,7 @@
         <v>5</v>
       </c>
       <c r="B135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3890,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3904,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="B136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136">
         <v>9</v>
@@ -3916,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3930,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="B137">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137">
         <v>-15</v>
@@ -3945,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -3956,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="B138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>9</v>
@@ -3974,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -3982,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="B139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139">
         <v>9</v>
@@ -4000,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4008,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="B140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -4020,13 +4032,13 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4034,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="B141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -4049,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -4060,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="B142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142">
         <v>-15</v>
@@ -4072,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4086,7 +4098,7 @@
         <v>5</v>
       </c>
       <c r="B143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143">
         <v>-15</v>
@@ -4101,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -4112,7 +4124,7 @@
         <v>5</v>
       </c>
       <c r="B144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144">
         <v>9</v>
@@ -4127,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -4138,7 +4150,7 @@
         <v>5</v>
       </c>
       <c r="B145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145">
         <v>-15</v>
@@ -4153,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -4164,7 +4176,7 @@
         <v>5</v>
       </c>
       <c r="B146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146">
         <v>-15</v>
@@ -4179,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -4190,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="B147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -4216,7 +4228,7 @@
         <v>5</v>
       </c>
       <c r="B148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148">
         <v>-15</v>
@@ -4234,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4242,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -4254,13 +4266,13 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4268,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="B150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150">
         <v>-15</v>
@@ -4280,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4294,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="B151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4306,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -4320,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="B152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -4346,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="B153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>9</v>
@@ -4358,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -4372,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="B154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>-15</v>
@@ -4398,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="B155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>-15</v>
@@ -4416,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4424,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4436,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -4450,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="B157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4465,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -4476,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="B158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>-15</v>
@@ -4488,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4502,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="B159">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4514,13 +4526,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4528,7 +4540,7 @@
         <v>5</v>
       </c>
       <c r="B160">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160">
         <v>9</v>
@@ -4540,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4554,7 +4566,7 @@
         <v>5</v>
       </c>
       <c r="B161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4566,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -4580,7 +4592,7 @@
         <v>5</v>
       </c>
       <c r="B162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162">
         <v>9</v>
@@ -4592,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -4606,7 +4618,7 @@
         <v>5</v>
       </c>
       <c r="B163">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163">
         <v>-15</v>
@@ -4632,7 +4644,7 @@
         <v>5</v>
       </c>
       <c r="B164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>9</v>
@@ -4650,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4658,7 +4670,7 @@
         <v>5</v>
       </c>
       <c r="B165">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>-15</v>
@@ -4676,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4684,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="B166">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166">
         <v>9</v>
@@ -4702,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4710,7 +4722,7 @@
         <v>5</v>
       </c>
       <c r="B167">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167">
         <v>-15</v>
@@ -4736,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="B168">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168">
         <v>9</v>
@@ -4762,7 +4774,7 @@
         <v>5</v>
       </c>
       <c r="B169">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169">
         <v>-15</v>
@@ -4777,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -4788,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="B170">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170">
         <v>-15</v>
@@ -4803,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -4814,7 +4826,7 @@
         <v>5</v>
       </c>
       <c r="B171">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4826,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -4840,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="B172">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172">
         <v>9</v>
@@ -4852,13 +4864,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4866,7 +4878,7 @@
         <v>5</v>
       </c>
       <c r="B173">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4878,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -4892,7 +4904,7 @@
         <v>5</v>
       </c>
       <c r="B174">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4918,7 +4930,7 @@
         <v>5</v>
       </c>
       <c r="B175">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C175">
         <v>-15</v>
@@ -4930,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -4944,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="B176">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C176">
         <v>9</v>
@@ -4970,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="B177">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C177">
         <v>9</v>
@@ -4988,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4996,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="B178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C178">
         <v>-15</v>
@@ -5022,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="B179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C179">
         <v>-15</v>
@@ -5048,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="B180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C180">
         <v>9</v>
@@ -5066,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5074,7 +5086,7 @@
         <v>5</v>
       </c>
       <c r="B181">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C181">
         <v>9</v>
@@ -5092,20 +5104,6 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="B182">
-        <v>180</v>
-      </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-      <c r="H182">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestingSuite\Assets\Studies\CHI26_Study3_Motion\data_processing\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC53F7-C3D7-4A6A-9168-2CDEF3651A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +113,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +234,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,14 +410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
@@ -453,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>5</v>
       </c>
@@ -479,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>5</v>
       </c>
@@ -505,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -522,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -531,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -574,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -583,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -600,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -609,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5</v>
       </c>
@@ -635,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5</v>
       </c>
@@ -661,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5</v>
       </c>
@@ -678,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -687,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
@@ -713,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5</v>
       </c>
@@ -730,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -739,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5</v>
       </c>
@@ -765,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -791,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
@@ -817,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5</v>
       </c>
@@ -843,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5</v>
       </c>
@@ -860,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -869,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5</v>
       </c>
@@ -886,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -895,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
@@ -921,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>5</v>
       </c>
@@ -947,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>5</v>
       </c>
@@ -973,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>5</v>
       </c>
@@ -999,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1025,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1051,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1077,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1146,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1155,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1233,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1259,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1285,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1311,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1354,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1363,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1389,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1415,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1467,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1493,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1545,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1571,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1597,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1675,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -1701,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1744,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1779,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1796,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1805,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -1831,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1848,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -1857,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -1883,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1900,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1909,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1935,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1961,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2004,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2013,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2030,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2039,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2056,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2065,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2143,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2169,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2247,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2273,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2299,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2368,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2377,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>5</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2403,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2429,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2455,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>5</v>
       </c>
@@ -2498,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2507,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2524,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2533,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>5</v>
       </c>
@@ -2559,7 +2577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>5</v>
       </c>
@@ -2611,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>5</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>5</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>5</v>
       </c>
@@ -2689,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>5</v>
       </c>
@@ -2706,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2715,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2732,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -2741,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>5</v>
       </c>
@@ -2767,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2793,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>5</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2871,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2897,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2940,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -2949,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>5</v>
       </c>
@@ -3001,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>5</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3053,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>5</v>
       </c>
@@ -3079,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>5</v>
       </c>
@@ -3105,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>5</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3131,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>5</v>
       </c>
@@ -3157,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>5</v>
       </c>
@@ -3183,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>5</v>
       </c>
@@ -3209,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3235,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3313,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3339,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3443,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -3469,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3495,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -3521,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3564,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3573,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3625,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3651,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3668,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -3677,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3729,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3781,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3798,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -3807,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>5</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -3833,7 +3851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>5</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>5</v>
       </c>
@@ -3885,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>5</v>
       </c>
@@ -3911,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>5</v>
       </c>
@@ -3937,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>5</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -3963,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>5</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4015,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4041,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4067,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>5</v>
       </c>
@@ -4084,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4093,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>5</v>
       </c>
@@ -4110,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4119,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>5</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>5</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4171,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4188,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4197,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4223,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>5</v>
       </c>
@@ -4240,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4249,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4292,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4301,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4327,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>5</v>
       </c>
@@ -4353,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>5</v>
       </c>
@@ -4379,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>5</v>
       </c>
@@ -4396,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -4405,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>5</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -4431,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>5</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>5</v>
       </c>
@@ -4483,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>5</v>
       </c>
@@ -4500,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4509,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>5</v>
       </c>
@@ -4535,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>5</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>5</v>
       </c>
@@ -4587,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>5</v>
       </c>
@@ -4613,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>5</v>
       </c>
@@ -4630,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -4639,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>5</v>
       </c>
@@ -4665,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>5</v>
       </c>
@@ -4682,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -4691,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>5</v>
       </c>
@@ -4717,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>5</v>
       </c>
@@ -4734,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -4743,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4769,7 +4787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>5</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -4795,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -4821,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>5</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>5</v>
       </c>
@@ -4873,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>5</v>
       </c>
@@ -4899,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>5</v>
       </c>
@@ -4925,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>5</v>
       </c>
@@ -4942,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -4951,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>5</v>
       </c>
@@ -4977,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>5</v>
       </c>
@@ -5003,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>5</v>
       </c>
@@ -5020,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -5029,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>5</v>
       </c>
@@ -5046,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -5055,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>5</v>
       </c>
@@ -5081,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>5</v>
       </c>

--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p5_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestingSuite\Assets\Studies\CHI26_Study3_Motion\data_processing\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC53F7-C3D7-4A6A-9168-2CDEF3651A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,21 +107,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -199,7 +185,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,10 +219,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,16 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>5</v>
       </c>
@@ -471,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>5</v>
       </c>
@@ -497,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>5</v>
       </c>
@@ -523,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
@@ -549,7 +531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -575,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -601,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
@@ -627,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>5</v>
       </c>
@@ -653,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>5</v>
       </c>
@@ -679,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>5</v>
       </c>
@@ -705,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>5</v>
       </c>
@@ -731,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>5</v>
       </c>
@@ -757,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>5</v>
       </c>
@@ -783,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>5</v>
       </c>
@@ -809,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>5</v>
       </c>
@@ -835,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>5</v>
       </c>
@@ -861,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>5</v>
       </c>
@@ -887,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>5</v>
       </c>
@@ -913,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>5</v>
       </c>
@@ -939,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>5</v>
       </c>
@@ -965,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>5</v>
       </c>
@@ -991,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1017,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1043,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1069,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1095,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1121,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1147,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1173,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1199,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1225,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1251,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1277,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1303,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1329,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1355,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1381,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1407,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1433,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1459,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1485,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1511,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1537,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1563,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1589,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1615,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1641,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1667,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1693,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1719,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1745,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1771,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>5</v>
       </c>
@@ -1797,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>5</v>
       </c>
@@ -1823,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1849,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1875,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1901,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1927,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1953,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1979,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2005,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2031,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2057,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2083,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2109,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2135,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2161,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2187,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2213,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2239,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2265,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2291,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2317,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2343,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2369,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2395,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>5</v>
       </c>
@@ -2421,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2447,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2473,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2499,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>5</v>
       </c>
@@ -2525,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2551,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>5</v>
       </c>
@@ -2577,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2603,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>5</v>
       </c>
@@ -2629,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>5</v>
       </c>
@@ -2655,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>5</v>
       </c>
@@ -2681,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>5</v>
       </c>
@@ -2707,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>5</v>
       </c>
@@ -2733,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>5</v>
       </c>
@@ -2759,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>5</v>
       </c>
@@ -2785,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2811,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>5</v>
       </c>
@@ -2837,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>5</v>
       </c>
@@ -2863,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2889,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2915,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2941,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2967,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2993,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>5</v>
       </c>
@@ -3019,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>5</v>
       </c>
@@ -3045,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>5</v>
       </c>
@@ -3071,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>5</v>
       </c>
@@ -3097,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>5</v>
       </c>
@@ -3123,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>5</v>
       </c>
@@ -3149,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>5</v>
       </c>
@@ -3175,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>5</v>
       </c>
@@ -3201,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>5</v>
       </c>
@@ -3227,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>5</v>
       </c>
@@ -3253,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>5</v>
       </c>
@@ -3279,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>5</v>
       </c>
@@ -3305,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>5</v>
       </c>
@@ -3331,7 +3313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>5</v>
       </c>
@@ -3357,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3383,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>5</v>
       </c>
@@ -3409,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>5</v>
       </c>
@@ -3435,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>5</v>
       </c>
@@ -3461,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>5</v>
       </c>
@@ -3487,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>5</v>
       </c>
@@ -3513,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>5</v>
       </c>
@@ -3539,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>5</v>
       </c>
@@ -3565,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>5</v>
       </c>
@@ -3591,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3617,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3643,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>5</v>
       </c>
@@ -3669,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>5</v>
       </c>
@@ -3695,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>5</v>
       </c>
@@ -3721,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>5</v>
       </c>
@@ -3747,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>5</v>
       </c>
@@ -3773,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3799,7 +3781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>5</v>
       </c>
@@ -3825,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>5</v>
       </c>
@@ -3851,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>5</v>
       </c>
@@ -3877,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>5</v>
       </c>
@@ -3903,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>5</v>
       </c>
@@ -3929,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>5</v>
       </c>
@@ -3955,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>5</v>
       </c>
@@ -3981,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4007,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4033,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4059,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4085,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>5</v>
       </c>
@@ -4111,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>5</v>
       </c>
@@ -4137,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>5</v>
       </c>
@@ -4163,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>5</v>
       </c>
@@ -4189,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4215,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4241,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>5</v>
       </c>
@@ -4267,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4293,7 +4275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4319,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4345,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>5</v>
       </c>
@@ -4371,7 +4353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>5</v>
       </c>
@@ -4397,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>5</v>
       </c>
@@ -4423,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>5</v>
       </c>
@@ -4449,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>5</v>
       </c>
@@ -4475,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>5</v>
       </c>
@@ -4501,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>5</v>
       </c>
@@ -4527,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>5</v>
       </c>
@@ -4553,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>5</v>
       </c>
@@ -4579,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>5</v>
       </c>
@@ -4605,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>5</v>
       </c>
@@ -4631,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>5</v>
       </c>
@@ -4657,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>5</v>
       </c>
@@ -4683,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>5</v>
       </c>
@@ -4709,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>5</v>
       </c>
@@ -4735,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>5</v>
       </c>
@@ -4761,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>5</v>
       </c>
@@ -4787,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>5</v>
       </c>
@@ -4813,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>5</v>
       </c>
@@ -4839,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>5</v>
       </c>
@@ -4865,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>5</v>
       </c>
@@ -4891,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>5</v>
       </c>
@@ -4917,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>5</v>
       </c>
@@ -4943,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>5</v>
       </c>
@@ -4969,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>5</v>
       </c>
@@ -4995,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>5</v>
       </c>
@@ -5021,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>5</v>
       </c>
@@ -5047,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>5</v>
       </c>
@@ -5073,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>5</v>
       </c>
@@ -5099,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>5</v>
       </c>
